--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440931.7795648507</v>
+        <v>361926.3586150921</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527567.3122189702</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13285531.60009103</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7535443.406453261</v>
+        <v>8622527.018880617</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>62.4162677022923</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>158.4756235735555</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,14 +898,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>215.4108546636942</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>244.5627323611424</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>244.5627323611424</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>244.5627323611424</v>
+        <v>105.0159053486537</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>50.95662256351774</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.55409844946683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.90252802695401</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>82.03417997490679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>244.5627323611424</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>209.9064962068211</v>
+        <v>57.40387281015121</v>
       </c>
       <c r="J14" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.395781178313159</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>148.9413660216818</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>244.5627323611424</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3356148920818</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>89.22837929232465</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>99.6672001609758</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.69098551756511</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>318.8441701540456</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023555</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20.75911149906594</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>60.54219026791008</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>138.5650190213105</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>276.1565137023555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>268.0607811825788</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>276.1565137023555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>211.2459596671186</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.32920716089167</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>175.1311939478779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>55.81966601622079</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>268.8622507509991</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>54.47555601903385</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>329.0250494700865</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>47.40419526769258</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>46.9104491589703</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.2867540744655</v>
+        <v>7.56299167860416</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.5310119231965</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14365212156734</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>313.7214568836114</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.82290122762556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>183.4914695615726</v>
       </c>
       <c r="C35" t="n">
-        <v>197.4083929851558</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>312.7196087087398</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3553,16 +3553,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.49538910923524</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>20.48699093885593</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>339.039918580681</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>128.6652719985047</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>42.52353645864903</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>205.3026358375772</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>48.97699675700441</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4546,10 +4546,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4591,25 +4591,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
         <v>506.1786963984129</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4661,10 +4661,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>484.1848034624637</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="C11" t="n">
-        <v>484.1848034624637</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="D11" t="n">
-        <v>484.1848034624637</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
-        <v>484.1848034624637</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>266.5980815799443</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>978.2509294445696</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>978.2509294445696</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T11" t="n">
-        <v>978.2509294445696</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>978.2509294445696</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>978.2509294445696</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W11" t="n">
-        <v>978.2509294445696</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X11" t="n">
-        <v>731.2178664535166</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y11" t="n">
-        <v>484.1848034624637</v>
+        <v>830.1724885289281</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342.9524575312697</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>168.4994282501427</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>19.56501858889139</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>146.1858617037014</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L12" t="n">
-        <v>146.1858617037014</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M12" t="n">
-        <v>239.4861551219973</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>481.6032601595283</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O12" t="n">
-        <v>723.7203651970593</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P12" t="n">
-        <v>907.8577401332359</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q12" t="n">
-        <v>978.2509294445697</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>978.2509294445697</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>978.2509294445697</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>978.2509294445697</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>978.2509294445697</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>978.2509294445697</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>926.7795935218245</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>718.9280933162917</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>511.1677945513377</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.56501858889139</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C13" t="n">
-        <v>19.56501858889139</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D13" t="n">
-        <v>19.56501858889139</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>158.0312465334349</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>156.0916735427112</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.61966348734273</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S13" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T13" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U13" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V13" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W13" t="n">
-        <v>19.56501858889139</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X13" t="n">
-        <v>19.56501858889139</v>
+        <v>422.6486545462876</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.56501858889139</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>572.2914551403904</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C14" t="n">
-        <v>572.2914551403904</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="D14" t="n">
-        <v>572.2914551403904</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="E14" t="n">
-        <v>572.2914551403904</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="F14" t="n">
-        <v>572.2914551403904</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="G14" t="n">
-        <v>489.428647084929</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="H14" t="n">
-        <v>242.3955840938761</v>
+        <v>111.9266917296081</v>
       </c>
       <c r="I14" t="n">
-        <v>30.36882024860223</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>124.4399474973463</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>306.8231980260856</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>978.2509294445697</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>969.7703423957685</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>819.3245181314434</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>819.3245181314434</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>819.3245181314434</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>819.3245181314434</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>819.3245181314434</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W14" t="n">
-        <v>819.3245181314434</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X14" t="n">
-        <v>819.3245181314434</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y14" t="n">
-        <v>572.2914551403904</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>877.5769898880285</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>703.1239606069015</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>554.1895509456502</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>394.9520959401947</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>248.4175379670797</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>109.6946946417446</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>19.56501858889139</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>251.2267644261525</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>309.8793444333311</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>551.9964494708621</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>794.1135545083931</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>978.2509294445697</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>978.2509294445697</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>877.5769898880285</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>877.5769898880285</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>877.5769898880285</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>877.5769898880285</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>877.5769898880285</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>877.5769898880285</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>877.5769898880285</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.5769898880285</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>135.111059141955</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>41.28197559507151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>88.07040250863015</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0312465334349</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>158.0312465334349</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>879.8992409003627</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C17" t="n">
-        <v>879.8992409003627</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="D17" t="n">
-        <v>879.8992409003627</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>879.8992409003627</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>600.9532674636399</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>322.0072940269172</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>43.06132059019444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173957</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>879.8992409003627</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>879.8992409003627</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>879.8992409003627</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>879.8992409003627</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>879.8992409003627</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y17" t="n">
-        <v>879.8992409003627</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.772397078701</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>109.772397078701</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>109.772397078701</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>109.772397078701</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>109.772397078701</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>109.772397078701</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>109.772397078701</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318535</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>165.799003153448</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>212.4252932779024</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>485.8202418432343</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>759.2151904085662</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>1025.71200399185</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>1008.180757940352</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>836.1767451915302</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>634.2968452196395</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>406.0782328537872</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>170.9261246220445</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>109.772397078701</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>109.772397078701</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.772397078701</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.0384945329112</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>301.0384945329112</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>301.0384945329112</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329112</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>22.09252109618844</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173957</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823544</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901066</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>850.7529338106226</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>579.9844679696339</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W20" t="n">
-        <v>301.0384945329112</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X20" t="n">
-        <v>301.0384945329112</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.0384945329112</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.09252109618844</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618844</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618844</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618844</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>28.39914141318535</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>114.7965710887686</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>360.9520376814696</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>634.3469862468015</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>907.7419348121334</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121334</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>932.6220420606005</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>932.6220420606005</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>719.2422848210867</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>484.090176589344</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>229.8528198611424</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>229.8528198611424</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.09252109618844</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>291.8218666715633</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492715</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>471.9067899221776</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C23" t="n">
-        <v>471.9067899221776</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>471.9067899221776</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
         <v>471.9067899221776</v>
@@ -5980,22 +5980,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.111720223191</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>1248.645961962111</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y23" t="n">
-        <v>858.5066299862995</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6089,28 +6089,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>336.276983312403</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T25" t="n">
-        <v>108.9687959810047</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94298182036446</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1701.775251950352</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C26" t="n">
-        <v>1369.426717132083</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D26" t="n">
-        <v>1011.161018525332</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E26" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224079</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.375092014473</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6314,19 +6314,19 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>684.3735766921516</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>456.3840257941342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>797.9969330253591</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C29" t="n">
-        <v>797.9969330253591</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>1837.140060718708</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>1463.674302457628</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y29" t="n">
-        <v>1184.596773089481</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6545,22 +6545,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7222632714563</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>882.8926947117852</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8926947117852</v>
+        <v>781.8192470984684</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>781.8192470984684</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>781.8192470984684</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>370.8333423088608</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y32" t="n">
-        <v>882.8926947117852</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2153.290992466904</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="W34" t="n">
-        <v>2153.290992466904</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2307.009759042411</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="C35" t="n">
-        <v>2107.607341885688</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
         <v>534.603677789272</v>
@@ -6940,10 +6940,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1331.377835177124</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="C38" t="n">
-        <v>1331.377835177124</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D38" t="n">
-        <v>1331.377835177124</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
         <v>534.603677789272</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2439.179894560628</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2439.179894560628</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.117007217057</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.117007217057</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.117007217057</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>1717.977675241246</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7268,10 +7268,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>418.2614436197335</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.2718927217162</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978288</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431126</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>807.3934508328821</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>396.4075460432745</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7453,10 +7453,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.00975904241</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1157.367208492925</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1157.367208492925</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861748</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7651,16 +7651,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W44" t="n">
-        <v>1364.743608328862</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X44" t="n">
-        <v>1157.367208492925</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1157.367208492925</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
@@ -7751,7 +7751,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>234.3744992697426</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.8491954283779</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2788254813443</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747125</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>199.3768089554827</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.8491954283779</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>385.2788254813443</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9730561082392</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>169.2957226082605</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>212.9476288664378</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3148329761767</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>93.21935958736407</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,13 +22786,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,19 +22831,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>233.3417714764288</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22871,16 +22871,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>195.6147640566097</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041843</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>191.4651910780173</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>170.7252358559293</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3235460419765</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>125.1683683173266</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>141.6752062949112</v>
+        <v>281.2220333073999</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.5363898835276</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>200.7383605974019</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23424,25 +23424,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>92.89079271141465</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
-        <v>127.4414088970473</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9172826158254</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.8071273620832</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>333.2537882421649</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>94.76081368083408</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.52744343471005</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>208.6835142066282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3444713639914</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.6752062949112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22.93074564142729</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9408621947163</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>132.5602576318105</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23694,31 +23694,31 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.920177260816416</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9172826158254</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>35.83887146663733</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.87643319194535</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>184.2890106185799</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>191.1527928930095</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,28 +23895,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>80.42517927457624</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1843906944439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>244.16882264217</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>59.6914772875561</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>73.08445501505753</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>14.69046657507519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,22 +24138,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>87.98059509815924</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.87383288310646</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>111.3918043887131</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>309.4532257547868</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>80.37871796641389</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>231.8063182229439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>36.24784230092109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>338.833743388361</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>171.6742041931245</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>109.9511845815881</v>
+        <v>378.6749469774495</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>209.5660032674698</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>100.0627131371836</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>181.3348734911269</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.68503059263372</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>199.242372101908</v>
       </c>
       <c r="C35" t="n">
-        <v>167.8644987858518</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>52.55328306226778</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>189.9529312484225</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>266.0360073977351</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>74.744251440114</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>16.75577602442655</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>173.9247838990088</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>164.4284648408918</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>118.3328055020465</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,7 +26079,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>24.37936745074319</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493611.8881503924</v>
+        <v>830601.3156845408</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493611.8881503924</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520820.66408407</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520820.6640840699</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830601.3156845409</v>
+        <v>830601.3156845408</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830601.3156845408</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830601.3156845409</v>
+        <v>830601.3156845408</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>125490.1462622123</v>
+        <v>216864.4575118181</v>
       </c>
       <c r="F2" t="n">
-        <v>125490.1462622122</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="G2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="H2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="I2" t="n">
         <v>216864.4575118182</v>
@@ -26343,7 +26343,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="L2" t="n">
-        <v>216864.4575118181</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="M2" t="n">
         <v>216864.4575118182</v>
@@ -26352,7 +26352,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="O2" t="n">
-        <v>216864.4575118181</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="P2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4011.079628431056</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33031.57585235869</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>363855.276088607</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>884.2863098579892</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7603.075073544237</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="D4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="E4" t="n">
-        <v>33663.59862924286</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>33663.59862924286</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>33777.16046143055</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>33777.16046143055</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
         <v>35944.74664026682</v>
@@ -26478,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>14949.50433863014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>14949.50433863014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38080.04268106785</v>
+        <v>-50298.05330110826</v>
       </c>
       <c r="C6" t="n">
-        <v>42689.38885047987</v>
+        <v>30471.37823043945</v>
       </c>
       <c r="D6" t="n">
-        <v>42689.38885047992</v>
+        <v>30471.37823043945</v>
       </c>
       <c r="E6" t="n">
-        <v>72865.96366590822</v>
+        <v>-307226.3549806733</v>
       </c>
       <c r="F6" t="n">
-        <v>76877.04329433924</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="G6" t="n">
-        <v>48523.85899866887</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="H6" t="n">
-        <v>81555.43485102759</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="I6" t="n">
-        <v>-232167.0432804652</v>
+        <v>125619.8190623228</v>
       </c>
       <c r="J6" t="n">
-        <v>68628.29020903575</v>
+        <v>62559.87646321647</v>
       </c>
       <c r="K6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623226</v>
       </c>
       <c r="L6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="M6" t="n">
-        <v>130803.9464982839</v>
+        <v>17646.45838826465</v>
       </c>
       <c r="N6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623228</v>
       </c>
       <c r="O6" t="n">
-        <v>124085.1577345976</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="P6" t="n">
-        <v>131688.232808142</v>
+        <v>125619.8190623227</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
-        <v>3.673862893242323</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.34739782588301</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.548443483483368</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.59378134121306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483368</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.59378134121295</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483368</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.59378134121306</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>1.038498653576677</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01476929806328571</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1512560737906248</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5693933635848228</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>1.253525711498797</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>1.878710098517681</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>2.330706004121961</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>2.593359508554918</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>2.635322776677229</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>2.488460569060432</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>2.123843523123065</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.594918036231646</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9277519194678716</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3365553796171234</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06465260227203322</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001181543845062856</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007902271128860845</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07631930274452449</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>0.272073808603323</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578574</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>1.276043491891534</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>1.71579794839586</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>2.002255276817066</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>2.055249016097891</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>1.880151324242606</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>1.508987194773436</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.008717977782307</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4906339916673428</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1467812203102002</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03185169810273295</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0005198862584776874</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006624998659945171</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05890226081296711</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1992317778827148</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4683874052581236</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7697043897645388</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9849566189522122</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>1.038498653576678</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013805476753247</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9364134469529778</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8012634742900956</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5547532968795906</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2978840306553528</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1154556584646808</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02830681245612936</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.000361363563269737</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727679</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470702</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K12" t="n">
-        <v>127.8998415301111</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>94.24272062454131</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
-        <v>244.5627323611424</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.10423162760989</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>92.68955593933617</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>234.0017634719809</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>59.24503031028143</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>244.5627323611424</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>40.62237561541727</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522134</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315785</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>47.09726275197407</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199196</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.370323552522134</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>87.27013098543765</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37861,13 +37861,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
